--- a/mMonitoreoTeoricos/formatos/Importador LA MACHACA.xlsx
+++ b/mMonitoreoTeoricos/formatos/Importador LA MACHACA.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham Martinez\Desktop\RESPALDO\IMPORTADORES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="885" windowWidth="19440" windowHeight="6810"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ClaveArticulo</t>
   </si>
@@ -29,12 +34,6 @@
   </si>
   <si>
     <t>7503016404013</t>
-  </si>
-  <si>
-    <t>7503016404075</t>
-  </si>
-  <si>
-    <t>7503016404068</t>
   </si>
   <si>
     <t>7503016404129</t>
@@ -88,7 +87,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +154,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -206,7 +199,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -242,9 +235,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,13 +318,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A291" totalsRowShown="0" dataDxfId="1">
-  <autoFilter ref="A1:A291"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A289" totalsRowShown="0" dataDxfId="1">
+  <autoFilter ref="A1:A289"/>
   <tableColumns count="1">
     <tableColumn id="1" name="ClaveArticulo" dataDxfId="0"/>
   </tableColumns>
@@ -627,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A291"/>
+  <dimension ref="A1:A289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,29 +667,25 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -705,10 +694,10 @@
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="9"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="9"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -720,43 +709,43 @@
       <c r="A21" s="9"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="7"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="8"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -765,10 +754,10 @@
       <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="9"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="9"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
@@ -780,16 +769,16 @@
       <c r="A41" s="9"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -825,10 +814,10 @@
       <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -864,10 +853,10 @@
       <c r="A69" s="3"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -1522,12 +1511,6 @@
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
